--- a/results.xlsx
+++ b/results.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nas01.itap.purdue.edu\puhome\pu.data\desktop\results_opt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopiv\Downloads\IE590-Optimization for Big Data\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF17B7A-CF75-41B4-B961-515430E2A5A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>result1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>result2</t>
   </si>
@@ -74,28 +73,70 @@
     <t xml:space="preserve">no. of cols of dictionary OR inner loop phase 2 </t>
   </si>
   <si>
-    <t>parameters Argmin X</t>
-  </si>
-  <si>
     <t>parameters Argmin S</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>X_clean</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>result1 (wrong code)</t>
+  </si>
+  <si>
+    <t>patch_size</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>didn’t work</t>
+  </si>
+  <si>
+    <t>result3 (cant use patch size)</t>
+  </si>
+  <si>
+    <t>result4</t>
+  </si>
+  <si>
+    <t>result5</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>PSNR</t>
+  </si>
+  <si>
+    <t>SSIM</t>
+  </si>
+  <si>
+    <t>noise level</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>Noisy,clean</t>
+  </si>
+  <si>
+    <t>noisy, denoise</t>
+  </si>
+  <si>
+    <t>denoise,clean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,15 +154,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -129,13 +176,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,51 +660,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="28.7109375" customWidth="1"/>
-    <col min="16" max="16" width="76.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="76.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -468,7 +724,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -488,16 +744,19 @@
       <c r="J2">
         <v>2</v>
       </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
       <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -506,7 +765,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -515,69 +774,457 @@
         <v>0.1</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>81</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>116.648</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>81</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>121</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>1029.23</v>
+      </c>
       <c r="O5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>121</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>794.96299999999997</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632F98E0-F1FF-461C-B7A9-2F1455E02A84}">
+  <dimension ref="B1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-26.712520000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.15770000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-28.108699999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.24859999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-31.023</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.46920000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-31.0916</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4481</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-34.3461</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.36730000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>-18.218399999999999</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>-25.1313</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.57330000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="14">
+        <v>-28.206499999999998</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.46210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="14">
+        <v>-30.9557</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.35959999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-34.493099999999998</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.2359</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="D21" s="14">
+        <v>-26.252500000000001</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.69889999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>-26.527200000000001</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="14">
+        <v>-29.227</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.59060000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="14">
+        <v>-27.224599999999999</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.55889999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="16">
+        <v>-29.562899999999999</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.4864</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>